--- a/SuppliersDatabase.xlsx
+++ b/SuppliersDatabase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -47,42 +47,9 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>TestUser</t>
-  </si>
-  <si>
-    <t>123411313612</t>
-  </si>
-  <si>
-    <t>blaabla</t>
-  </si>
-  <si>
     <t>Goa</t>
   </si>
   <si>
-    <t>TestComapny</t>
-  </si>
-  <si>
-    <t>enrfweo</t>
-  </si>
-  <si>
-    <t>fnfoeno</t>
-  </si>
-  <si>
-    <t>wefnen</t>
-  </si>
-  <si>
-    <t>ofnewnfo</t>
-  </si>
-  <si>
-    <t>foqenfo</t>
-  </si>
-  <si>
-    <t>feownfwonf</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -92,31 +59,34 @@
     <t>Status</t>
   </si>
   <si>
-    <t>dummy</t>
-  </si>
-  <si>
-    <t>dqd</t>
-  </si>
-  <si>
-    <t>wqvrqw</t>
-  </si>
-  <si>
-    <t>qwvrbqnnqtubnun</t>
-  </si>
-  <si>
-    <t>ramesh</t>
-  </si>
-  <si>
-    <t>Ramesh</t>
-  </si>
-  <si>
-    <t>Gokuldham Society</t>
-  </si>
-  <si>
-    <t>Ramesh Oxyygen</t>
-  </si>
-  <si>
-    <t>Available</t>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Lng</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>MarkingTest</t>
+  </si>
+  <si>
+    <t>88484</t>
+  </si>
+  <si>
+    <t>testingaddr</t>
+  </si>
+  <si>
+    <t>MarkingTestCompany</t>
+  </si>
+  <si>
+    <t>15.3974514598621</t>
+  </si>
+  <si>
+    <t>73.8071474432945</t>
   </si>
 </sst>
 </file>
@@ -469,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,9 +453,11 @@
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,111 +480,70 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <v>123</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1">
-        <v>91658965959</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="J5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SuppliersDatabase.xlsx
+++ b/SuppliersDatabase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Username</t>
   </si>
@@ -47,46 +47,94 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Lng</t>
+  </si>
+  <si>
+    <t>ramesh</t>
+  </si>
+  <si>
+    <t>Ramu</t>
+  </si>
+  <si>
+    <t>461959565</t>
+  </si>
+  <si>
+    <t>gqgqq</t>
+  </si>
+  <si>
     <t>Goa</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Lng</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>MarkingTest</t>
-  </si>
-  <si>
-    <t>88484</t>
-  </si>
-  <si>
-    <t>testingaddr</t>
-  </si>
-  <si>
-    <t>MarkingTestCompany</t>
-  </si>
-  <si>
-    <t>15.3974514598621</t>
-  </si>
-  <si>
-    <t>73.8071474432945</t>
+    <t>RamuIndustries</t>
+  </si>
+  <si>
+    <t>15.3993521149221</t>
+  </si>
+  <si>
+    <t>73.8051679730415</t>
+  </si>
+  <si>
+    <t>kaju</t>
+  </si>
+  <si>
+    <t>Kaju</t>
+  </si>
+  <si>
+    <t>54469</t>
+  </si>
+  <si>
+    <t>tqtioqjt0q</t>
+  </si>
+  <si>
+    <t>Dummycomp</t>
+  </si>
+  <si>
+    <t>15.2155162372789</t>
+  </si>
+  <si>
+    <t>73.9862251281738</t>
+  </si>
+  <si>
+    <t>markesh</t>
+  </si>
+  <si>
+    <t>testmarker</t>
+  </si>
+  <si>
+    <t>999526655</t>
+  </si>
+  <si>
+    <t>tqonqtitiq</t>
+  </si>
+  <si>
+    <t>markingtest</t>
+  </si>
+  <si>
+    <t>15.4377959202409</t>
+  </si>
+  <si>
+    <t>74.0497398376465</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Unavailable</t>
+  </si>
+  <si>
+    <t>Out of stock</t>
   </si>
 </sst>
 </file>
@@ -439,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,6 +501,7 @@
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="20.44140625" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
@@ -480,49 +529,31 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -545,6 +576,156 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>5699</v>
+      </c>
+      <c r="I9">
+        <v>150</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>6442</v>
+      </c>
+      <c r="I10">
+        <v>1882</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11">
+        <v>7998</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SuppliersDatabase.xlsx
+++ b/SuppliersDatabase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5143031F-D1CF-41B0-8967-DC72AEF01202}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="12960" windowWidth="11520" windowHeight="12960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="339">
   <si>
     <t>Username</t>
   </si>
@@ -62,85 +63,991 @@
     <t>Lng</t>
   </si>
   <si>
-    <t>ramesh</t>
-  </si>
-  <si>
-    <t>Ramu</t>
-  </si>
-  <si>
-    <t>461959565</t>
-  </si>
-  <si>
-    <t>gqgqq</t>
+    <t>austin123</t>
+  </si>
+  <si>
+    <t>fernandes123</t>
+  </si>
+  <si>
+    <t>Austin Fernandes</t>
+  </si>
+  <si>
+    <t>7507470777</t>
+  </si>
+  <si>
+    <t>Ponda</t>
   </si>
   <si>
     <t>Goa</t>
   </si>
   <si>
-    <t>RamuIndustries</t>
-  </si>
-  <si>
-    <t>15.3993521149221</t>
-  </si>
-  <si>
-    <t>73.8051679730415</t>
-  </si>
-  <si>
-    <t>kaju</t>
-  </si>
-  <si>
-    <t>Kaju</t>
-  </si>
-  <si>
-    <t>54469</t>
-  </si>
-  <si>
-    <t>tqtioqjt0q</t>
-  </si>
-  <si>
-    <t>Dummycomp</t>
-  </si>
-  <si>
-    <t>15.2155162372789</t>
-  </si>
-  <si>
-    <t>73.9862251281738</t>
-  </si>
-  <si>
-    <t>markesh</t>
-  </si>
-  <si>
-    <t>testmarker</t>
-  </si>
-  <si>
-    <t>999526655</t>
-  </si>
-  <si>
-    <t>tqonqtitiq</t>
-  </si>
-  <si>
-    <t>markingtest</t>
-  </si>
-  <si>
-    <t>15.4377959202409</t>
-  </si>
-  <si>
-    <t>74.0497398376465</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>Unavailable</t>
-  </si>
-  <si>
-    <t>Out of stock</t>
+    <t>Austin Enterprises</t>
+  </si>
+  <si>
+    <t>15.3955766470435</t>
+  </si>
+  <si>
+    <t>74.0026992559433</t>
+  </si>
+  <si>
+    <t>raish987</t>
+  </si>
+  <si>
+    <t>naik987</t>
+  </si>
+  <si>
+    <t>Raish Naik</t>
+  </si>
+  <si>
+    <t>8504625624</t>
+  </si>
+  <si>
+    <t>Margao</t>
+  </si>
+  <si>
+    <t>Naik Oxy LTD</t>
+  </si>
+  <si>
+    <t>15.2745962133264</t>
+  </si>
+  <si>
+    <t>73.9775803685188</t>
+  </si>
+  <si>
+    <t>varad1234</t>
+  </si>
+  <si>
+    <t>prabhu1234</t>
+  </si>
+  <si>
+    <t>Varad Prabhu</t>
+  </si>
+  <si>
+    <t>9548741234</t>
+  </si>
+  <si>
+    <t>Vasco</t>
+  </si>
+  <si>
+    <t>Prabhu Gases</t>
+  </si>
+  <si>
+    <t>15.395219784207</t>
+  </si>
+  <si>
+    <t>73.8363540172577</t>
+  </si>
+  <si>
+    <t>nehal842</t>
+  </si>
+  <si>
+    <t>haldankar842</t>
+  </si>
+  <si>
+    <t>Nehal Haldankar</t>
+  </si>
+  <si>
+    <t>8456795842</t>
+  </si>
+  <si>
+    <t>Panaji</t>
+  </si>
+  <si>
+    <t>Mahalaximi Enterprises</t>
+  </si>
+  <si>
+    <t>15.4687205868038</t>
+  </si>
+  <si>
+    <t>73.8479948043823</t>
+  </si>
+  <si>
+    <t>imran786</t>
+  </si>
+  <si>
+    <t>khan786</t>
+  </si>
+  <si>
+    <t>Imran Khan</t>
+  </si>
+  <si>
+    <t>9517538426</t>
+  </si>
+  <si>
+    <t>Khan Enterprises</t>
+  </si>
+  <si>
+    <t>15.4088577154899</t>
+  </si>
+  <si>
+    <t>74.0092277526855</t>
+  </si>
+  <si>
+    <t>vaibhav987</t>
+  </si>
+  <si>
+    <t>shinkre987</t>
+  </si>
+  <si>
+    <t>Vaibhav Shinkre</t>
+  </si>
+  <si>
+    <t>7531598624</t>
+  </si>
+  <si>
+    <t>Shinkre Gases</t>
+  </si>
+  <si>
+    <t>15.2842265115101</t>
+  </si>
+  <si>
+    <t>73.9579010009766</t>
+  </si>
+  <si>
+    <t>kartik123</t>
+  </si>
+  <si>
+    <t>kamat123</t>
+  </si>
+  <si>
+    <t>Kartik Kamat</t>
+  </si>
+  <si>
+    <t>8529637410</t>
+  </si>
+  <si>
+    <t>Kamat Oxy LTD</t>
+  </si>
+  <si>
+    <t>15.4735855922692</t>
+  </si>
+  <si>
+    <t>73.8231629133224</t>
+  </si>
+  <si>
+    <t>pratik123</t>
+  </si>
+  <si>
+    <t>parker321</t>
+  </si>
+  <si>
+    <t>Pratik Parker</t>
+  </si>
+  <si>
+    <t>8624793102</t>
+  </si>
+  <si>
+    <t>Valpoi</t>
+  </si>
+  <si>
+    <t>Parker Enterprises</t>
+  </si>
+  <si>
+    <t>15.5282405324977</t>
+  </si>
+  <si>
+    <t>74.1325986385345</t>
+  </si>
+  <si>
+    <t>ashish123</t>
+  </si>
+  <si>
+    <t>naik4321</t>
+  </si>
+  <si>
+    <t>Ashish Naik</t>
+  </si>
+  <si>
+    <t>8520963741</t>
+  </si>
+  <si>
+    <t>Ashish Oxy LTD</t>
+  </si>
+  <si>
+    <t>15.3949767033737</t>
+  </si>
+  <si>
+    <t>73.8062059879303</t>
+  </si>
+  <si>
+    <t>vivek567</t>
+  </si>
+  <si>
+    <t>kerkar567</t>
+  </si>
+  <si>
+    <t>Vivek Kerkar</t>
+  </si>
+  <si>
+    <t>7418529630</t>
+  </si>
+  <si>
+    <t>Kerkar Gases</t>
+  </si>
+  <si>
+    <t>15.5322203232906</t>
+  </si>
+  <si>
+    <t>74.1365897655487</t>
+  </si>
+  <si>
+    <t>onkar123</t>
+  </si>
+  <si>
+    <t>parab123</t>
+  </si>
+  <si>
+    <t>Onkar Parab</t>
+  </si>
+  <si>
+    <t>9635741852</t>
+  </si>
+  <si>
+    <t>Mapusa</t>
+  </si>
+  <si>
+    <t>Onkar Oxy LTD</t>
+  </si>
+  <si>
+    <t>15.5937009005388</t>
+  </si>
+  <si>
+    <t>73.8139092922211</t>
+  </si>
+  <si>
+    <t>gautam123</t>
+  </si>
+  <si>
+    <t>Gautam Prabhudesai</t>
+  </si>
+  <si>
+    <t>9513728602</t>
+  </si>
+  <si>
+    <t>Cancona</t>
+  </si>
+  <si>
+    <t>14.9924188111339</t>
+  </si>
+  <si>
+    <t>74.0448501706123</t>
+  </si>
+  <si>
+    <t>tejas123</t>
+  </si>
+  <si>
+    <t>chowgule123</t>
+  </si>
+  <si>
+    <t>Tejas Chowgule</t>
+  </si>
+  <si>
+    <t>9512035486</t>
+  </si>
+  <si>
+    <t>Bicholim</t>
+  </si>
+  <si>
+    <t>Chowgule Oxy LTD</t>
+  </si>
+  <si>
+    <t>15.5872201321525</t>
+  </si>
+  <si>
+    <t>73.953921943903</t>
+  </si>
+  <si>
+    <t>saish123</t>
+  </si>
+  <si>
+    <t>desai123</t>
+  </si>
+  <si>
+    <t>Saish Desai</t>
+  </si>
+  <si>
+    <t>8435798502</t>
+  </si>
+  <si>
+    <t>Desai Gases</t>
+  </si>
+  <si>
+    <t>15.2911436491446</t>
+  </si>
+  <si>
+    <t>73.9763747155666</t>
+  </si>
+  <si>
+    <t>sai123</t>
+  </si>
+  <si>
+    <t>Venkat</t>
+  </si>
+  <si>
+    <t>7584120369</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Sai Oxy LTD</t>
+  </si>
+  <si>
+    <t>17.4395312177344</t>
+  </si>
+  <si>
+    <t>78.4801536798477</t>
+  </si>
+  <si>
+    <t>tapir123</t>
+  </si>
+  <si>
+    <t>gao123</t>
+  </si>
+  <si>
+    <t>Tapir Gao</t>
+  </si>
+  <si>
+    <t>8547963201</t>
+  </si>
+  <si>
+    <t>Riga, Siang District</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Gao Enterprises</t>
+  </si>
+  <si>
+    <t>28.4187681175871</t>
+  </si>
+  <si>
+    <t>95.0501489639282</t>
+  </si>
+  <si>
+    <t>abul123</t>
+  </si>
+  <si>
+    <t>hassan123</t>
+  </si>
+  <si>
+    <t>Abul Hassan</t>
+  </si>
+  <si>
+    <t>8520147965</t>
+  </si>
+  <si>
+    <t>Nagaon</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Hassan Gases</t>
+  </si>
+  <si>
+    <t>26.3464794024813</t>
+  </si>
+  <si>
+    <t>92.6871228218079</t>
+  </si>
+  <si>
+    <t>babu1234</t>
+  </si>
+  <si>
+    <t>singh1234</t>
+  </si>
+  <si>
+    <t>Babu Kunwar Singh</t>
+  </si>
+  <si>
+    <t>8456971205</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Singh Oxy LTD</t>
+  </si>
+  <si>
+    <t>25.6082588689725</t>
+  </si>
+  <si>
+    <t>85.0845730304718</t>
+  </si>
+  <si>
+    <t>sharma123</t>
+  </si>
+  <si>
+    <t>Ramanuj Sharma</t>
+  </si>
+  <si>
+    <t>8795203699</t>
+  </si>
+  <si>
+    <t>Raipur</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Sharma Gases</t>
+  </si>
+  <si>
+    <t>21.2502896242019</t>
+  </si>
+  <si>
+    <t>81.6299012303352</t>
+  </si>
+  <si>
+    <t>sundar123</t>
+  </si>
+  <si>
+    <t>gada123</t>
+  </si>
+  <si>
+    <t>Sundarlaal Gada</t>
+  </si>
+  <si>
+    <t>9510357520</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Gada Enterprises</t>
+  </si>
+  <si>
+    <t>23.0395939394869</t>
+  </si>
+  <si>
+    <t>72.5586783885956</t>
+  </si>
+  <si>
+    <t>Gautam Enterprises</t>
+  </si>
+  <si>
+    <t>pandit123</t>
+  </si>
+  <si>
+    <t>lakshmi123</t>
+  </si>
+  <si>
+    <t>Pandit Lakshmi Chand</t>
+  </si>
+  <si>
+    <t>7895203695</t>
+  </si>
+  <si>
+    <t>Panipat</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Panipat Oxy LTD</t>
+  </si>
+  <si>
+    <t>29.3867839036418</t>
+  </si>
+  <si>
+    <t>76.9713145494461</t>
+  </si>
+  <si>
+    <t>vikram123</t>
+  </si>
+  <si>
+    <t>batra123</t>
+  </si>
+  <si>
+    <t>Vikram Batra</t>
+  </si>
+  <si>
+    <t>8452014789</t>
+  </si>
+  <si>
+    <t>Palampur</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Batra Gases</t>
+  </si>
+  <si>
+    <t>32.1094508177326</t>
+  </si>
+  <si>
+    <t>76.5356111526489</t>
+  </si>
+  <si>
+    <t>deepak123</t>
+  </si>
+  <si>
+    <t>lohar123</t>
+  </si>
+  <si>
+    <t>Deepak Lohar</t>
+  </si>
+  <si>
+    <t>7504862486</t>
+  </si>
+  <si>
+    <t>Ranchi</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Deepak Gases</t>
+  </si>
+  <si>
+    <t>23.3588926723925</t>
+  </si>
+  <si>
+    <t>85.325231552124</t>
+  </si>
+  <si>
+    <t>mithun123</t>
+  </si>
+  <si>
+    <t>anna123</t>
+  </si>
+  <si>
+    <t>Mithun Anna</t>
+  </si>
+  <si>
+    <t>8690245776</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Anna Oxy LTD</t>
+  </si>
+  <si>
+    <t>12.9420108255846</t>
+  </si>
+  <si>
+    <t>77.5912427902222</t>
+  </si>
+  <si>
+    <t>akhil123</t>
+  </si>
+  <si>
+    <t>john123</t>
+  </si>
+  <si>
+    <t>Akhil John</t>
+  </si>
+  <si>
+    <t>9914526802</t>
+  </si>
+  <si>
+    <t>Kochi</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>John Gases</t>
+  </si>
+  <si>
+    <t>9.94661719382238</t>
+  </si>
+  <si>
+    <t>76.252852678299</t>
+  </si>
+  <si>
+    <t>sunit123</t>
+  </si>
+  <si>
+    <t>Sunit Chaubey</t>
+  </si>
+  <si>
+    <t>7855412035</t>
+  </si>
+  <si>
+    <t>Indore</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Chaubey Enterprises</t>
+  </si>
+  <si>
+    <t>22.7382592601368</t>
+  </si>
+  <si>
+    <t>75.8561646938324</t>
+  </si>
+  <si>
+    <t>abhijeet</t>
+  </si>
+  <si>
+    <t>Abhijeet Banerjee</t>
+  </si>
+  <si>
+    <t>8556473321</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Banerjee Gases</t>
+  </si>
+  <si>
+    <t>22.554901243311</t>
+  </si>
+  <si>
+    <t>88.3541321754456</t>
+  </si>
+  <si>
+    <t>harish123</t>
+  </si>
+  <si>
+    <t>rawat123</t>
+  </si>
+  <si>
+    <t>Harish Rawat</t>
+  </si>
+  <si>
+    <t>8997463025</t>
+  </si>
+  <si>
+    <t>Dehradun</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>Rawat Oxy LTD</t>
+  </si>
+  <si>
+    <t>30.3134291354131</t>
+  </si>
+  <si>
+    <t>78.0450832843781</t>
+  </si>
+  <si>
+    <t>mangal</t>
+  </si>
+  <si>
+    <t>pandey</t>
+  </si>
+  <si>
+    <t>Mangal Pandey</t>
+  </si>
+  <si>
+    <t>8452017963</t>
+  </si>
+  <si>
+    <t>Kanpur</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Pandey Enterprises</t>
+  </si>
+  <si>
+    <t>26.4592012517787</t>
+  </si>
+  <si>
+    <t>80.3434896469116</t>
+  </si>
+  <si>
+    <t>subu123</t>
+  </si>
+  <si>
+    <t>iyer123</t>
+  </si>
+  <si>
+    <t>Subramaniam Iyer</t>
+  </si>
+  <si>
+    <t>9887560241</t>
+  </si>
+  <si>
+    <t>Madurai</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Iyer Gases</t>
+  </si>
+  <si>
+    <t>9.92173489852624</t>
+  </si>
+  <si>
+    <t>78.1258016824722</t>
+  </si>
+  <si>
+    <t>sandip</t>
+  </si>
+  <si>
+    <t>chettri</t>
+  </si>
+  <si>
+    <t>Sandip Chettri</t>
+  </si>
+  <si>
+    <t>8856203589</t>
+  </si>
+  <si>
+    <t>Gangtok</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Chettri Oxy LTD</t>
+  </si>
+  <si>
+    <t>27.3449151055662</t>
+  </si>
+  <si>
+    <t>88.603658080101</t>
+  </si>
+  <si>
+    <t>Santosh</t>
+  </si>
+  <si>
+    <t>Santosh Kumar</t>
+  </si>
+  <si>
+    <t>7992014586</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Kumar Enterprises</t>
+  </si>
+  <si>
+    <t>26.9147851124155</t>
+  </si>
+  <si>
+    <t>75.7978963851929</t>
+  </si>
+  <si>
+    <t>jaspreet</t>
+  </si>
+  <si>
+    <t>Jaspreet Singh</t>
+  </si>
+  <si>
+    <t>8693524715</t>
+  </si>
+  <si>
+    <t>Jalandar</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Singh Gases</t>
+  </si>
+  <si>
+    <t>30.9132894657384</t>
+  </si>
+  <si>
+    <t>75.8610463142395</t>
+  </si>
+  <si>
+    <t>shankar</t>
+  </si>
+  <si>
+    <t>shankar123</t>
+  </si>
+  <si>
+    <t>Shankar Ray</t>
+  </si>
+  <si>
+    <t>7585623540</t>
+  </si>
+  <si>
+    <t>Bhubaneshwar</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Shankar Oxy LTD</t>
+  </si>
+  <si>
+    <t>20.2739323658852</t>
+  </si>
+  <si>
+    <t>85.837270617485</t>
+  </si>
+  <si>
+    <t>vivek0123</t>
+  </si>
+  <si>
+    <t>Kohima</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Kohima Oxy LTD</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>8552203692</t>
+  </si>
+  <si>
+    <t>25.6687095555364</t>
+  </si>
+  <si>
+    <t>94.105464220047</t>
+  </si>
+  <si>
+    <t>Sairuat Kima</t>
+  </si>
+  <si>
+    <t>Aizawl</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Aizawl Gases</t>
+  </si>
+  <si>
+    <t>kima123</t>
+  </si>
+  <si>
+    <t>8486320102</t>
+  </si>
+  <si>
+    <t>23.7330361531354</t>
+  </si>
+  <si>
+    <t>92.7169758081436</t>
+  </si>
+  <si>
+    <t>manas123</t>
+  </si>
+  <si>
+    <t>Manas Chaudhuri</t>
+  </si>
+  <si>
+    <t>94587445632</t>
+  </si>
+  <si>
+    <t>Shillong</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>Chaudhuri Gases</t>
+  </si>
+  <si>
+    <t>25.571531977033</t>
+  </si>
+  <si>
+    <t>91.8974697589874</t>
+  </si>
+  <si>
+    <t>kirti123</t>
+  </si>
+  <si>
+    <t>Kirti Singh</t>
+  </si>
+  <si>
+    <t>8452236984</t>
+  </si>
+  <si>
+    <t>Imphal</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>Kirti Enterpeises</t>
+  </si>
+  <si>
+    <t>24.8114922627136</t>
+  </si>
+  <si>
+    <t>93.9502501487732</t>
+  </si>
+  <si>
+    <t>tushar12</t>
+  </si>
+  <si>
+    <t>Tushar Shinde</t>
+  </si>
+  <si>
+    <t>9558462035</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Shinde Enterpises</t>
+  </si>
+  <si>
+    <t>19.0784281089177</t>
+  </si>
+  <si>
+    <t>72.8429013490677</t>
+  </si>
+  <si>
+    <t>sunil123</t>
+  </si>
+  <si>
+    <t>Sunil Bapat</t>
+  </si>
+  <si>
+    <t>8632021459</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Bapat Oxy LTD</t>
+  </si>
+  <si>
+    <t>18.5187451072975</t>
+  </si>
+  <si>
+    <t>73.8660138845444</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,11 +1393,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,7 +1408,6 @@
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="20.44140625" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
@@ -552,178 +1458,1177 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9">
-        <v>5699</v>
-      </c>
-      <c r="I9">
-        <v>150</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10">
-        <v>6442</v>
-      </c>
-      <c r="I10">
-        <v>1882</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11">
-        <v>7998</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/SuppliersDatabase.xlsx
+++ b/SuppliersDatabase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5143031F-D1CF-41B0-8967-DC72AEF01202}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A4A85E-B7EA-47C1-8931-C9CB28D664B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="342">
   <si>
     <t>Username</t>
   </si>
@@ -1042,6 +1042,15 @@
   </si>
   <si>
     <t>73.8660138845444</t>
+  </si>
+  <si>
+    <t>Out of Stock</t>
+  </si>
+  <si>
+    <t>Unavailable</t>
+  </si>
+  <si>
+    <t>Available</t>
   </si>
 </sst>
 </file>
@@ -1396,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1493,6 +1502,15 @@
       <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H5">
+        <v>3000</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>341</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1522,6 +1540,15 @@
       <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="H6">
+        <v>5000</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>341</v>
+      </c>
       <c r="K6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1551,6 +1578,15 @@
       <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="H7">
+        <v>4000</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>339</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1580,6 +1616,15 @@
       <c r="G8" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="H8">
+        <v>3500</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>341</v>
+      </c>
       <c r="K8" s="1" t="s">
         <v>43</v>
       </c>
@@ -1609,6 +1654,15 @@
       <c r="G9" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="H9">
+        <v>4500</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>339</v>
+      </c>
       <c r="K9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1638,6 +1692,15 @@
       <c r="G10" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="H10">
+        <v>3000</v>
+      </c>
+      <c r="I10">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>341</v>
+      </c>
       <c r="K10" s="1" t="s">
         <v>57</v>
       </c>
@@ -1667,6 +1730,15 @@
       <c r="G11" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="H11">
+        <v>5000</v>
+      </c>
+      <c r="I11">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>340</v>
+      </c>
       <c r="K11" s="1" t="s">
         <v>64</v>
       </c>
@@ -1696,6 +1768,15 @@
       <c r="G12" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="H12">
+        <v>3500</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>341</v>
+      </c>
       <c r="K12" s="1" t="s">
         <v>72</v>
       </c>
@@ -1725,6 +1806,15 @@
       <c r="G13" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="H13">
+        <v>4500</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13" t="s">
+        <v>341</v>
+      </c>
       <c r="K13" s="1" t="s">
         <v>79</v>
       </c>
@@ -1754,6 +1844,15 @@
       <c r="G14" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="H14">
+        <v>4000</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>339</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>86</v>
       </c>
@@ -1783,6 +1882,15 @@
       <c r="G15" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="H15">
+        <v>3500</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>341</v>
+      </c>
       <c r="K15" s="1" t="s">
         <v>94</v>
       </c>
@@ -1812,6 +1920,15 @@
       <c r="G16" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="H16">
+        <v>5000</v>
+      </c>
+      <c r="I16">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>341</v>
+      </c>
       <c r="K16" s="1" t="s">
         <v>100</v>
       </c>
@@ -1841,6 +1958,15 @@
       <c r="G17" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="H17">
+        <v>4000</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>339</v>
+      </c>
       <c r="K17" s="1" t="s">
         <v>108</v>
       </c>
@@ -1870,6 +1996,15 @@
       <c r="G18" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="H18">
+        <v>3500</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18" t="s">
+        <v>341</v>
+      </c>
       <c r="K18" s="1" t="s">
         <v>115</v>
       </c>
@@ -1899,6 +2034,15 @@
       <c r="G19" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="H19">
+        <v>3500</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>341</v>
+      </c>
       <c r="K19" s="1" t="s">
         <v>123</v>
       </c>
@@ -1928,6 +2072,15 @@
       <c r="G20" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="H20">
+        <v>5000</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>340</v>
+      </c>
       <c r="K20" s="1" t="s">
         <v>132</v>
       </c>
@@ -1957,6 +2110,15 @@
       <c r="G21" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="H21">
+        <v>4500</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21" t="s">
+        <v>341</v>
+      </c>
       <c r="K21" s="1" t="s">
         <v>141</v>
       </c>
@@ -1986,6 +2148,15 @@
       <c r="G22" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="H22">
+        <v>3000</v>
+      </c>
+      <c r="I22">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>341</v>
+      </c>
       <c r="K22" s="1" t="s">
         <v>150</v>
       </c>
@@ -2015,6 +2186,15 @@
       <c r="G23" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="H23">
+        <v>4500</v>
+      </c>
+      <c r="I23">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s">
+        <v>341</v>
+      </c>
       <c r="K23" s="1" t="s">
         <v>158</v>
       </c>
@@ -2044,6 +2224,15 @@
       <c r="G24" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="H24">
+        <v>4000</v>
+      </c>
+      <c r="I24">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>340</v>
+      </c>
       <c r="K24" s="1" t="s">
         <v>167</v>
       </c>
@@ -2073,6 +2262,15 @@
       <c r="G25" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="H25">
+        <v>3000</v>
+      </c>
+      <c r="I25">
+        <v>50</v>
+      </c>
+      <c r="J25" t="s">
+        <v>341</v>
+      </c>
       <c r="K25" s="1" t="s">
         <v>177</v>
       </c>
@@ -2102,6 +2300,15 @@
       <c r="G26" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="H26">
+        <v>3500</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>339</v>
+      </c>
       <c r="K26" s="1" t="s">
         <v>186</v>
       </c>
@@ -2131,6 +2338,15 @@
       <c r="G27" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="H27">
+        <v>5000</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27" t="s">
+        <v>341</v>
+      </c>
       <c r="K27" s="1" t="s">
         <v>195</v>
       </c>
@@ -2160,6 +2376,15 @@
       <c r="G28" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="H28">
+        <v>3500</v>
+      </c>
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>341</v>
+      </c>
       <c r="K28" s="1" t="s">
         <v>204</v>
       </c>
@@ -2189,6 +2414,15 @@
       <c r="G29" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="H29">
+        <v>3000</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29" t="s">
+        <v>341</v>
+      </c>
       <c r="K29" s="1" t="s">
         <v>213</v>
       </c>
@@ -2218,6 +2452,15 @@
       <c r="G30" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="H30">
+        <v>4500</v>
+      </c>
+      <c r="I30">
+        <v>75</v>
+      </c>
+      <c r="J30" t="s">
+        <v>341</v>
+      </c>
       <c r="K30" s="1" t="s">
         <v>221</v>
       </c>
@@ -2247,6 +2490,15 @@
       <c r="G31" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="H31">
+        <v>5000</v>
+      </c>
+      <c r="I31">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>340</v>
+      </c>
       <c r="K31" s="1" t="s">
         <v>229</v>
       </c>
@@ -2276,6 +2528,15 @@
       <c r="G32" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="H32">
+        <v>3000</v>
+      </c>
+      <c r="I32">
+        <v>50</v>
+      </c>
+      <c r="J32" t="s">
+        <v>341</v>
+      </c>
       <c r="K32" s="1" t="s">
         <v>238</v>
       </c>
@@ -2305,6 +2566,15 @@
       <c r="G33" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="H33">
+        <v>4500</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33" t="s">
+        <v>341</v>
+      </c>
       <c r="K33" s="1" t="s">
         <v>247</v>
       </c>
@@ -2334,6 +2604,15 @@
       <c r="G34" s="1" t="s">
         <v>255</v>
       </c>
+      <c r="H34">
+        <v>4000</v>
+      </c>
+      <c r="I34">
+        <v>75</v>
+      </c>
+      <c r="J34" t="s">
+        <v>341</v>
+      </c>
       <c r="K34" s="1" t="s">
         <v>256</v>
       </c>
@@ -2363,6 +2642,15 @@
       <c r="G35" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="H35">
+        <v>3500</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>339</v>
+      </c>
       <c r="K35" s="1" t="s">
         <v>265</v>
       </c>
@@ -2392,6 +2680,15 @@
       <c r="G36" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="H36">
+        <v>4500</v>
+      </c>
+      <c r="I36">
+        <v>25</v>
+      </c>
+      <c r="J36" t="s">
+        <v>340</v>
+      </c>
       <c r="K36" s="1" t="s">
         <v>273</v>
       </c>
@@ -2421,6 +2718,15 @@
       <c r="G37" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="H37">
+        <v>5000</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37" t="s">
+        <v>341</v>
+      </c>
       <c r="K37" s="1" t="s">
         <v>281</v>
       </c>
@@ -2450,6 +2756,15 @@
       <c r="G38" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="H38">
+        <v>3500</v>
+      </c>
+      <c r="I38">
+        <v>75</v>
+      </c>
+      <c r="J38" t="s">
+        <v>341</v>
+      </c>
       <c r="K38" s="1" t="s">
         <v>290</v>
       </c>
@@ -2479,6 +2794,15 @@
       <c r="G39" s="1" t="s">
         <v>295</v>
       </c>
+      <c r="H39">
+        <v>4000</v>
+      </c>
+      <c r="I39">
+        <v>50</v>
+      </c>
+      <c r="J39" t="s">
+        <v>341</v>
+      </c>
       <c r="K39" s="1" t="s">
         <v>298</v>
       </c>
@@ -2508,6 +2832,15 @@
       <c r="G40" s="1" t="s">
         <v>303</v>
       </c>
+      <c r="H40">
+        <v>3000</v>
+      </c>
+      <c r="I40">
+        <v>25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>340</v>
+      </c>
       <c r="K40" s="1" t="s">
         <v>306</v>
       </c>
@@ -2537,6 +2870,15 @@
       <c r="G41" s="1" t="s">
         <v>313</v>
       </c>
+      <c r="H41">
+        <v>4500</v>
+      </c>
+      <c r="I41">
+        <v>100</v>
+      </c>
+      <c r="J41" t="s">
+        <v>341</v>
+      </c>
       <c r="K41" s="1" t="s">
         <v>314</v>
       </c>
@@ -2566,6 +2908,15 @@
       <c r="G42" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="H42">
+        <v>4000</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>339</v>
+      </c>
       <c r="K42" s="1" t="s">
         <v>322</v>
       </c>
@@ -2595,6 +2946,15 @@
       <c r="G43" s="1" t="s">
         <v>329</v>
       </c>
+      <c r="H43">
+        <v>3000</v>
+      </c>
+      <c r="I43">
+        <v>75</v>
+      </c>
+      <c r="J43" t="s">
+        <v>341</v>
+      </c>
       <c r="K43" s="1" t="s">
         <v>330</v>
       </c>
@@ -2623,6 +2983,15 @@
       </c>
       <c r="G44" s="1" t="s">
         <v>336</v>
+      </c>
+      <c r="H44">
+        <v>5000</v>
+      </c>
+      <c r="I44">
+        <v>25</v>
+      </c>
+      <c r="J44" t="s">
+        <v>341</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>337</v>

--- a/SuppliersDatabase.xlsx
+++ b/SuppliersDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A4A85E-B7EA-47C1-8931-C9CB28D664B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341D57B3-1CFA-4FDF-968B-A88550E05C53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1402,11 +1402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1421,7 +1421,7 @@
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1468,7 +1468,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1480,7 +1480,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="8">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="10">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="11">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>96</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
         <v>102</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="18">
       <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
@@ -1997,10 +1997,10 @@
         <v>114</v>
       </c>
       <c r="H18">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="I18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s">
         <v>341</v>
@@ -2012,7 +2012,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="20">
       <c r="A20" s="1" t="s">
         <v>125</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
         <v>134</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
         <v>143</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
         <v>152</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
         <v>160</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="25">
       <c r="A25" s="1" t="s">
         <v>170</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
         <v>179</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
         <v>188</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="28">
       <c r="A28" s="1" t="s">
         <v>197</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="29">
       <c r="A29" s="1" t="s">
         <v>206</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="30">
       <c r="A30" s="1" t="s">
         <v>215</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="31">
       <c r="A31" s="1" t="s">
         <v>223</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="32">
       <c r="A32" s="1" t="s">
         <v>231</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
         <v>240</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="34">
       <c r="A34" s="1" t="s">
         <v>249</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="35">
       <c r="A35" s="1" t="s">
         <v>258</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="36">
       <c r="A36" s="1" t="s">
         <v>267</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="37">
       <c r="A37" s="1" t="s">
         <v>275</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="38">
       <c r="A38" s="1" t="s">
         <v>283</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
         <v>292</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="40">
       <c r="A40" s="1" t="s">
         <v>304</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="41">
       <c r="A41" s="1" t="s">
         <v>308</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="42">
       <c r="A42" s="1" t="s">
         <v>316</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="43">
       <c r="A43" s="1" t="s">
         <v>324</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row spans="1:12" x14ac:dyDescent="0.3" outlineLevel="0" r="44">
       <c r="A44" s="1" t="s">
         <v>332</v>
       </c>
@@ -2998,6 +2998,64 @@
       </c>
       <c r="L44" s="1" t="s">
         <v>338</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>nihal</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>kamat</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>Nihal Kamat</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>9405920393</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>Ponda</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>Kamat Stores</t>
+        </is>
+      </c>
+      <c r="H45" s="1">
+        <v>3500</v>
+      </c>
+      <c r="I45" s="1">
+        <v>50</v>
+      </c>
+      <c r="J45" s="1" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="K45" s="1" t="inlineStr">
+        <is>
+          <t>15.4027241187136</t>
+        </is>
+      </c>
+      <c r="L45" s="1" t="inlineStr">
+        <is>
+          <t>74.0032517910004</t>
+        </is>
       </c>
     </row>
   </sheetData>
